--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_22_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90312.50078847301</v>
+        <v>16693931.17069521</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90312.50078847301</v>
+        <v>16693931.17069521</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33054.0756170024</v>
+        <v>4169597.295504899</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33054.0756170024</v>
+        <v>4169597.295504899</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418292893.817679</v>
+        <v>53132607.05405205</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11367.6422907817</v>
+        <v>1176179.552157058</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21919.34307066924</v>
+        <v>2227258.773277624</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32471.04385055675</v>
+        <v>3278337.99439819</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43144.17318387016</v>
+        <v>4313458.988478567</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53670.78201150923</v>
+        <v>5369084.123727135</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64143.30923661907</v>
+        <v>6439964.132766589</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74608.86120910336</v>
+        <v>7563476.11683284</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85009.49506118662</v>
+        <v>8672016.801232338</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95856.22682324966</v>
+        <v>9699742.281769829</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105963.3913075321</v>
+        <v>10826837.96584912</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116014.6930909934</v>
+        <v>11976246.93135006</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126050.8033798945</v>
+        <v>13122719.10479771</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136086.2268355364</v>
+        <v>14269280.50058655</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146801.7343119464</v>
+        <v>15289121.35571772</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159069.0350904289</v>
+        <v>16022077.38230134</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>386</v>
@@ -27055,10 +27055,10 @@
         <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>339</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
